--- a/BD_DocTour_2.xlsx
+++ b/BD_DocTour_2.xlsx
@@ -5,15 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01741351_tec_mx/Documents/Documents/Tec de Monterrey/Semestre 8/2 - Diseño de un sistema organizacional inteligente/Gestión financiera/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01741351_tec_mx/Documents/Documents/Tec de Monterrey/Semestre 8/2 - Diseño de un sistema organizacional inteligente/App/CCADS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AB5091D5-A7E0-4F42-B19D-40E82B2C50AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91FB6FAA-B679-46B9-A51A-2F4007B75521}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{6B6FB4F3-93F2-4C89-9BC7-841DAB24FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45CFBFEB-36A6-4F39-9EB7-8E15AB55A815}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1DA38FD0-DEE7-4738-B888-4CEA76E31734}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{1DA38FD0-DEE7-4738-B888-4CEA76E31734}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja principal" sheetId="7" r:id="rId1"/>
+    <sheet name="1_Comisiones" sheetId="1" r:id="rId2"/>
+    <sheet name="1_CostosFijos" sheetId="6" r:id="rId3"/>
+    <sheet name="1_CostosFijosTotales" sheetId="12" r:id="rId4"/>
+    <sheet name="1_Precios" sheetId="8" r:id="rId5"/>
+    <sheet name="1_MembresíasProyectadas_3" sheetId="9" r:id="rId6"/>
+    <sheet name="1_MembresíasProyectadas_6" sheetId="11" r:id="rId7"/>
+    <sheet name="1_Tasas" sheetId="10" r:id="rId8"/>
+    <sheet name="3_Membresías" sheetId="2" r:id="rId9"/>
+    <sheet name="3_Margen" sheetId="3" r:id="rId10"/>
+    <sheet name="3_Utilidad" sheetId="4" r:id="rId11"/>
+    <sheet name="3_Porcentaje  de utilización" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
   <si>
     <t>Precio de venta</t>
   </si>
@@ -147,6 +158,201 @@
   </si>
   <si>
     <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Membresias</t>
+  </si>
+  <si>
+    <t>enero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">febrero </t>
+  </si>
+  <si>
+    <t>marzo</t>
+  </si>
+  <si>
+    <t>abril</t>
+  </si>
+  <si>
+    <t>mayo</t>
+  </si>
+  <si>
+    <t>junio</t>
+  </si>
+  <si>
+    <t>julio</t>
+  </si>
+  <si>
+    <t>agosto</t>
+  </si>
+  <si>
+    <t>septiembre</t>
+  </si>
+  <si>
+    <t>octubre</t>
+  </si>
+  <si>
+    <t>noviembre</t>
+  </si>
+  <si>
+    <t>diciembre</t>
+  </si>
+  <si>
+    <t>Red de descuentos nacional + plataforma wellness</t>
+  </si>
+  <si>
+    <t>2A opinión médica en Estados Unidos para colaborador y familia</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>% de utilización</t>
+  </si>
+  <si>
+    <t>Basica</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta en línea medicinal general </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contención emocional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta en línea psicología </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta en línea de nutrición </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traslado en ambulancia terrestre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitness app </t>
+  </si>
+  <si>
+    <t>Voucher para viaje familiar a Cancún con descuento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check anual - laboratorios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan visual- Examen de la vista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan dental </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia funeraria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indemnización por muerte en accidente laboral </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reembolso de gastos médicos en hospital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguro de vida - 12 meses de salario </t>
+  </si>
+  <si>
+    <t>Platino</t>
+  </si>
+  <si>
+    <t>Margenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad </t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>CallCenter_Oficinas</t>
+  </si>
+  <si>
+    <t>Medicina_General</t>
+  </si>
+  <si>
+    <t>Plataforma_de_descuentos</t>
+  </si>
+  <si>
+    <t>Segunda_opinión_médica</t>
+  </si>
+  <si>
+    <t>Sueldo_por_muerte_accidental</t>
+  </si>
+  <si>
+    <t>Comisión_Vendedor</t>
+  </si>
+  <si>
+    <t>Comisión_Referencia</t>
+  </si>
+  <si>
+    <t>Comisión_Financiera</t>
+  </si>
+  <si>
+    <t>Comisión_Mercadotecnia</t>
+  </si>
+  <si>
+    <t>Tasa_inflacion</t>
+  </si>
+  <si>
+    <t>Tasa_impuestos</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>199.00</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>Costos fijos totales</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>109.00</t>
   </si>
 </sst>
 </file>
@@ -156,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,16 +401,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Roboto Condensed"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto Condensed"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -221,13 +462,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -256,13 +526,56 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda 2" xfId="3" xr:uid="{4831AFB6-6882-4DD6-AF26-E3EECEE5D924}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -273,6 +586,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{523E4391-E6B1-4762-9426-E0EA6DBE8CD5}" name="Tabla2" displayName="Tabla2" ref="A1:B4" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:B4" xr:uid="{523E4391-E6B1-4762-9426-E0EA6DBE8CD5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{10A1A7FE-48F7-46B3-AE9E-B6DD593E070A}" name="Membresias"/>
+    <tableColumn id="2" xr3:uid="{E65B53E9-882C-402E-AB5E-DE8FDA1E5A81}" name="Cantidad "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B06F95E2-336F-476E-AB8F-9C0D9FDC090A}" name="Tabla1" displayName="Tabla1" ref="A1:B13" totalsRowShown="0">
+  <autoFilter ref="A1:B13" xr:uid="{B06F95E2-336F-476E-AB8F-9C0D9FDC090A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D1CA9A40-823F-427D-9852-174AF5B34328}" name="Tiempo"/>
+    <tableColumn id="2" xr3:uid="{8A3D3DB4-6BDD-48DD-8D12-4FB25FB41D41}" name="Margenes" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,11 +906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A311AD-83FB-4EE2-85A8-D4A5ECAB60A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440025D2-0B74-4555-94BB-AC48F9B70796}">
   <dimension ref="C2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,6 +1431,1026 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC0F636-6D75-4B14-A76F-57797DE89F69}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C94C2B-8412-43C4-8BE4-F10CE1412B8D}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="19">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="20">
+        <v>4000</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="19">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="20">
+        <v>6000</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="19">
+        <v>600</v>
+      </c>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="20">
+        <v>700</v>
+      </c>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="19">
+        <v>800</v>
+      </c>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="20">
+        <v>900</v>
+      </c>
+      <c r="C13" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94316DB-40F3-4D2F-BBCC-D82A7600E235}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A311AD-83FB-4EE2-85A8-D4A5ECAB60A6}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="22" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:D5" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52845A79-500B-4B3E-8835-1F19C50EA462}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="22">
+        <v>15.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:C9 D2:D8" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59672BE4-ED41-4CBB-9B63-451DB8874162}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="22">
+        <v>167.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:C2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3CCF63-C018-490A-BC9E-E33B865CC5C4}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="22" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="23">
+        <v>304.47000000000003</v>
+      </c>
+      <c r="D2" s="24">
+        <v>487.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1EC4DA-55F6-4EF5-9649-D8C4104285EA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>45078</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>45108</v>
+      </c>
+      <c r="B3">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>45139</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA531083-7BBC-4D4A-AAAF-597A3FDF31F9}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>45078</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>45108</v>
+      </c>
+      <c r="B3">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>45139</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>45170</v>
+      </c>
+      <c r="B5">
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>45200</v>
+      </c>
+      <c r="B6">
+        <v>93</v>
+      </c>
+      <c r="C6">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>45231</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009A2784-9CEE-4D0A-A6A3-790686B94A2F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="22">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B3" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572C5DB2-134C-4F20-A402-D9B0DDD873F1}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
